--- a/配付資料/Excel編第2回/0_スピル.xlsx
+++ b/配付資料/Excel編第2回/0_スピル.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshi/Library/CloudStorage/Dropbox/Werktisch/Projects/Introduction_to_Data_Processing/配付資料/Excel編第2回/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FF3F8-B4D8-E34E-AD6C-F4C0EE9215AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB0BFA-BE24-F548-B075-1005EB9F3ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18260" yWindow="8240" windowWidth="27500" windowHeight="16440" xr2:uid="{28E50363-F3D3-D641-81A4-4F6E68A866F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,36 +35,21 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>X</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>X^2</t>
+    <t>POWER関数</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xのコピー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -449,109 +434,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705C20D3-EC5E-244E-9BE4-ED3FBE5913B4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" cm="1">
-        <f t="array" ref="B2:B12">POWER(A2:A12,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
